--- a/AAII_Financials/Quarterly/SHCR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SHCR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
   <si>
     <t>SHCR</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2821,11 +2821,11 @@
       <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
+      <c r="G89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3166,11 +3166,11 @@
       <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
+      <c r="G102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/SHCR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SHCR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="92">
   <si>
     <t>SHCR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,103 +665,115 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
-        <v>44286</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>119100</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>105600</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>188100</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>88400</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>80200</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+        <v>160200</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>58900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>51300</v>
+      </c>
+      <c r="F9" s="3">
+        <v>93000</v>
+      </c>
+      <c r="G9" s="3">
+        <v>43800</v>
+      </c>
+      <c r="H9" s="3">
+        <v>36900</v>
+      </c>
+      <c r="I9" s="3">
+        <v>80200</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -769,28 +781,34 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>60200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>54300</v>
+      </c>
+      <c r="F10" s="3">
+        <v>95100</v>
+      </c>
+      <c r="G10" s="3">
+        <v>44600</v>
+      </c>
+      <c r="H10" s="3">
+        <v>43300</v>
+      </c>
+      <c r="I10" s="3">
+        <v>80000</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -798,8 +816,14 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -811,8 +835,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -840,8 +866,14 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,8 +901,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -878,57 +916,69 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>1100</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>8800</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>13900</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>5600</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>6100</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>13000</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -937,28 +987,30 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>900</v>
+        <v>157700</v>
       </c>
       <c r="E17" s="3">
-        <v>900</v>
+        <v>136300</v>
       </c>
       <c r="F17" s="3">
-        <v>200</v>
+        <v>205500</v>
       </c>
       <c r="G17" s="3">
-        <v>100</v>
+        <v>101100</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+        <v>75200</v>
+      </c>
+      <c r="I17" s="3">
+        <v>170000</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -966,28 +1018,34 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-38600</v>
       </c>
       <c r="E18" s="3">
-        <v>-900</v>
+        <v>-30700</v>
       </c>
       <c r="F18" s="3">
-        <v>-200</v>
+        <v>-17400</v>
       </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>-12700</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+        <v>5000</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-9800</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -995,8 +1053,14 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,28 +1072,30 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>47900</v>
       </c>
       <c r="E20" s="3">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>-17100</v>
+        <v>-20700</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>-9400</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-300</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1037,28 +1103,34 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="H21" s="3">
+        <v>11200</v>
+      </c>
+      <c r="I21" s="3">
+        <v>2900</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1066,57 +1138,69 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>12800</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>14100</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>8100</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>15400</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-900</v>
+        <v>8600</v>
       </c>
       <c r="E23" s="3">
-        <v>8100</v>
+        <v>-43600</v>
       </c>
       <c r="F23" s="3">
-        <v>-17300</v>
+        <v>-52200</v>
       </c>
       <c r="G23" s="3">
-        <v>-100</v>
+        <v>-29600</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+        <v>-3000</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-25500</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1124,37 +1208,49 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+        <v>-200</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,28 +1278,34 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-900</v>
+        <v>10100</v>
       </c>
       <c r="E26" s="3">
-        <v>8100</v>
+        <v>-43100</v>
       </c>
       <c r="F26" s="3">
-        <v>-17300</v>
+        <v>-52200</v>
       </c>
       <c r="G26" s="3">
-        <v>-100</v>
+        <v>-28700</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+        <v>-2500</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-25300</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1211,28 +1313,34 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-900</v>
+        <v>10200</v>
       </c>
       <c r="E27" s="3">
-        <v>8100</v>
+        <v>-43100</v>
       </c>
       <c r="F27" s="3">
-        <v>-17300</v>
+        <v>-52200</v>
       </c>
       <c r="G27" s="3">
-        <v>-100</v>
+        <v>-28300</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+        <v>-6400</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-25300</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1240,8 +1348,14 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1269,8 +1383,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,8 +1418,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1327,8 +1453,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1356,28 +1488,34 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>-47900</v>
       </c>
       <c r="E32" s="3">
-        <v>-9000</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>17100</v>
+        <v>20700</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>9400</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="I32" s="3">
+        <v>300</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1385,28 +1523,34 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-900</v>
+        <v>10200</v>
       </c>
       <c r="E33" s="3">
-        <v>8100</v>
+        <v>-43100</v>
       </c>
       <c r="F33" s="3">
-        <v>-17300</v>
+        <v>-52200</v>
       </c>
       <c r="G33" s="3">
-        <v>-100</v>
+        <v>-28300</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+        <v>-6400</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-25300</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1414,8 +1558,14 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,28 +1593,34 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-900</v>
+        <v>10200</v>
       </c>
       <c r="E35" s="3">
-        <v>8100</v>
+        <v>-43100</v>
       </c>
       <c r="F35" s="3">
-        <v>-17300</v>
+        <v>-52200</v>
       </c>
       <c r="G35" s="3">
-        <v>-100</v>
+        <v>-28300</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+        <v>-6400</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-25300</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1472,42 +1628,54 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
-        <v>44286</v>
-      </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1519,8 +1687,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1532,25 +1702,27 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>271100</v>
       </c>
       <c r="E41" s="3">
-        <v>300</v>
+        <v>325900</v>
       </c>
       <c r="F41" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
+        <v>42800</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1561,8 +1733,14 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1590,37 +1768,49 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>108600</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>87600</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>83400</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1648,25 +1838,31 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>11300</v>
       </c>
       <c r="E45" s="3">
-        <v>300</v>
+        <v>12600</v>
       </c>
       <c r="F45" s="3">
-        <v>400</v>
-      </c>
-      <c r="G45" s="3">
-        <v>300</v>
-      </c>
-      <c r="H45" s="3">
-        <v>100</v>
+        <v>11400</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1677,25 +1873,31 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>200</v>
+        <v>391000</v>
       </c>
       <c r="E46" s="3">
-        <v>600</v>
+        <v>426100</v>
       </c>
       <c r="F46" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1700</v>
-      </c>
-      <c r="H46" s="3">
-        <v>100</v>
+        <v>137600</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1706,95 +1908,119 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>345000</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>345000</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>345100</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>345000</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>4600</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>4100</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>347500</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
+        <v>341200</v>
       </c>
       <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>275500</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +2048,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1851,37 +2083,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>12200</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>11900</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>20000</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1909,25 +2153,31 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>345200</v>
+        <v>755200</v>
       </c>
       <c r="E54" s="3">
-        <v>345700</v>
+        <v>783700</v>
       </c>
       <c r="F54" s="3">
-        <v>346600</v>
-      </c>
-      <c r="G54" s="3">
-        <v>346700</v>
-      </c>
-      <c r="H54" s="3">
-        <v>100</v>
+        <v>437200</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -1938,8 +2188,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1951,8 +2207,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1964,25 +2222,27 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>700</v>
+        <v>27200</v>
       </c>
       <c r="E57" s="3">
-        <v>200</v>
+        <v>22200</v>
       </c>
       <c r="F57" s="3">
-        <v>300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>300</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
+        <v>30500</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -1993,25 +2253,31 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1200</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H58" s="3">
-        <v>100</v>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2022,54 +2288,66 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>67900</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>67300</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
+        <v>89700</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>700</v>
+        <v>95100</v>
       </c>
       <c r="E60" s="3">
-        <v>200</v>
+        <v>89600</v>
       </c>
       <c r="F60" s="3">
-        <v>300</v>
-      </c>
-      <c r="G60" s="3">
-        <v>300</v>
-      </c>
-      <c r="H60" s="3">
-        <v>100</v>
+        <v>121300</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2080,19 +2358,25 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>166800</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2109,22 +2393,28 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>43800</v>
+        <v>36700</v>
       </c>
       <c r="E62" s="3">
-        <v>43800</v>
+        <v>85400</v>
       </c>
       <c r="F62" s="3">
-        <v>52800</v>
-      </c>
-      <c r="G62" s="3">
-        <v>12100</v>
+        <v>62100</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2138,8 +2428,14 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2463,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2196,8 +2498,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2225,25 +2533,31 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>44500</v>
+        <v>134000</v>
       </c>
       <c r="E66" s="3">
-        <v>44000</v>
+        <v>177200</v>
       </c>
       <c r="F66" s="3">
-        <v>53100</v>
-      </c>
-      <c r="G66" s="3">
-        <v>12400</v>
-      </c>
-      <c r="H66" s="3">
-        <v>100</v>
+        <v>352400</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2254,8 +2568,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2267,8 +2587,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2296,8 +2618,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2325,19 +2653,25 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>58200</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>58200</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>242600</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2354,8 +2688,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,25 +2723,31 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-10200</v>
+        <v>-477100</v>
       </c>
       <c r="E72" s="3">
-        <v>-9200</v>
+        <v>-487300</v>
       </c>
       <c r="F72" s="3">
-        <v>-17400</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H72" s="3">
-        <v>0</v>
+        <v>-444200</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2412,8 +2758,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +2793,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2470,8 +2828,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2499,25 +2863,31 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>300700</v>
+        <v>563000</v>
       </c>
       <c r="E76" s="3">
-        <v>301700</v>
+        <v>548400</v>
       </c>
       <c r="F76" s="3">
-        <v>293500</v>
-      </c>
-      <c r="G76" s="3">
-        <v>334300</v>
-      </c>
-      <c r="H76" s="3">
-        <v>0</v>
+        <v>-157900</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2528,8 +2898,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2557,62 +2933,74 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
-        <v>44286</v>
-      </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-900</v>
+        <v>10200</v>
       </c>
       <c r="E81" s="3">
-        <v>8100</v>
+        <v>-43100</v>
       </c>
       <c r="F81" s="3">
-        <v>-17300</v>
+        <v>-52200</v>
       </c>
       <c r="G81" s="3">
-        <v>-100</v>
+        <v>-28300</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+        <v>-6400</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-25300</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2620,8 +3008,14 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2633,37 +3027,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>8800</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>13900</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>5600</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>6100</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>13000</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2691,8 +3093,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,8 +3128,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,8 +3163,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +3198,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2807,28 +3233,34 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-400</v>
+        <v>-22200</v>
       </c>
       <c r="E89" s="3">
-        <v>-900</v>
+        <v>-31900</v>
       </c>
       <c r="F89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="G89" s="3">
+        <v>5500</v>
+      </c>
+      <c r="H89" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I89" s="3">
+        <v>5300</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -2836,8 +3268,14 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2849,37 +3287,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-900</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +3353,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2936,28 +3388,34 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-14900</v>
       </c>
       <c r="E94" s="3">
-        <v>100</v>
+        <v>-79000</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+        <v>-18500</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-11500</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -2965,8 +3423,14 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2978,8 +3442,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3007,8 +3473,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3508,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,8 +3543,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3094,28 +3578,34 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>394100</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+        <v>38600</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I100" s="3">
+        <v>7400</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3123,62 +3613,80 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+        <v>-700</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-300</v>
+        <v>-54800</v>
       </c>
       <c r="E102" s="3">
-        <v>-800</v>
+        <v>283100</v>
       </c>
       <c r="F102" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+        <v>20200</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I102" s="3">
+        <v>600</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SHCR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SHCR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="92">
   <si>
     <t>SHCR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,191 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>103800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>100700</v>
+      </c>
+      <c r="F8" s="3">
         <v>119100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>105600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>188100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>88400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>80200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>160200</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="L8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>53200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>51500</v>
+      </c>
+      <c r="F9" s="3">
         <v>58900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>51300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>93000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>43800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>36900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>80200</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>50600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>49200</v>
+      </c>
+      <c r="F10" s="3">
         <v>60200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>54300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>95100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>44600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>43300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>80000</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -837,31 +863,33 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
+      <c r="D12" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E12" s="3">
+        <v>18400</v>
+      </c>
+      <c r="F12" s="3">
+        <v>20300</v>
+      </c>
+      <c r="G12" s="3">
+        <v>15400</v>
+      </c>
+      <c r="H12" s="3">
+        <v>26300</v>
+      </c>
+      <c r="I12" s="3">
+        <v>12200</v>
+      </c>
+      <c r="J12" s="3">
+        <v>10400</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -872,8 +900,14 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -907,23 +941,29 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>1100</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -933,52 +973,64 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E15" s="3">
+        <v>9900</v>
+      </c>
+      <c r="F15" s="3">
         <v>10000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>8800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>13900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>5600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>6100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>13000</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -989,78 +1041,92 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>139500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>151300</v>
+      </c>
+      <c r="F17" s="3">
         <v>157700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>136300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>205500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>101100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>75200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>170000</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-35700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-50600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-38600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-30700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-17400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-12700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>5000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-9800</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1074,183 +1140,215 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>12900</v>
+      </c>
+      <c r="F20" s="3">
         <v>47900</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-20700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-9400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="F21" s="3">
         <v>19300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-22000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-24200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-16500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>11200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>2900</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>500</v>
+      </c>
+      <c r="E22" s="3">
+        <v>500</v>
+      </c>
+      <c r="F22" s="3">
         <v>700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>12800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>14100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>7500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>8100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>15400</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-29300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-38200</v>
+      </c>
+      <c r="F23" s="3">
         <v>8600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-43600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-52200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-29600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-3000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-25500</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
         <v>-1500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-500</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-200</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1284,78 +1382,96 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-38300</v>
+      </c>
+      <c r="F26" s="3">
         <v>10100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-43100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-52200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-28700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-2500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-25300</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-38200</v>
+      </c>
+      <c r="F27" s="3">
         <v>10200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-43100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-52200</v>
       </c>
-      <c r="G27" s="3">
-        <v>-28300</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-6400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-25300</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1389,8 +1505,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1424,8 +1546,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1459,8 +1587,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1494,78 +1628,96 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="F32" s="3">
         <v>-47900</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>20700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>9400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-38200</v>
+      </c>
+      <c r="F33" s="3">
         <v>10200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-43100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-52200</v>
       </c>
-      <c r="G33" s="3">
-        <v>-28300</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-6400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-25300</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1599,83 +1751,101 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-38200</v>
+      </c>
+      <c r="F35" s="3">
         <v>10200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-43100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-52200</v>
       </c>
-      <c r="G35" s="3">
-        <v>-28300</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-6400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-25300</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1689,8 +1859,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1704,26 +1876,28 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>211600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>253300</v>
+      </c>
+      <c r="F41" s="3">
         <v>271100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>325900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>42800</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1739,8 +1913,14 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1774,43 +1954,55 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>101500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>98100</v>
+      </c>
+      <c r="F43" s="3">
         <v>108600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>87600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>83400</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1844,26 +2036,32 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>14200</v>
+      </c>
+      <c r="F45" s="3">
         <v>11300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>12600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>11400</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1879,26 +2077,32 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>327900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>365700</v>
+      </c>
+      <c r="F46" s="3">
         <v>391000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>426100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>137600</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1914,8 +2118,14 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1940,87 +2150,105 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F48" s="3">
         <v>4500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>4600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>4100</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>347800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>349200</v>
+      </c>
+      <c r="F49" s="3">
         <v>347500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>341200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>275500</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2054,8 +2282,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2089,43 +2323,55 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F52" s="3">
         <v>12200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>11900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>20000</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2159,26 +2405,32 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>701100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>739200</v>
+      </c>
+      <c r="F54" s="3">
         <v>755200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>783700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>437200</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2194,8 +2446,14 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2209,8 +2467,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2224,26 +2484,28 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>27300</v>
+      </c>
+      <c r="F57" s="3">
         <v>27200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>22200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>30500</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2259,26 +2521,32 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>1200</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2294,61 +2562,73 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>54800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>70300</v>
+      </c>
+      <c r="F59" s="3">
         <v>67900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>67300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>89700</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>76800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>98200</v>
+      </c>
+      <c r="F60" s="3">
         <v>95100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>89600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>121300</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2364,26 +2644,32 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>166800</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2399,26 +2685,32 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>20100</v>
+      </c>
+      <c r="F62" s="3">
         <v>36700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>85400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>62100</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2434,8 +2726,14 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2469,8 +2767,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2504,8 +2808,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2539,26 +2849,32 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>91600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>120200</v>
+      </c>
+      <c r="F66" s="3">
         <v>134000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>177200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>352400</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2574,8 +2890,14 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2589,8 +2911,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2624,8 +2948,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2659,8 +2989,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2671,14 +3007,14 @@
         <v>58200</v>
       </c>
       <c r="F70" s="3">
+        <v>58200</v>
+      </c>
+      <c r="G70" s="3">
+        <v>58200</v>
+      </c>
+      <c r="H70" s="3">
         <v>242600</v>
       </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -2694,8 +3030,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2729,26 +3071,32 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-544300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-515300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-477100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-487300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-444200</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2764,8 +3112,14 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2799,8 +3153,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2834,8 +3194,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2869,26 +3235,32 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>551300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>560800</v>
+      </c>
+      <c r="F76" s="3">
         <v>563000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>548400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-157900</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2904,8 +3276,14 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2939,83 +3317,101 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-38200</v>
+      </c>
+      <c r="F81" s="3">
         <v>10200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-43100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-52200</v>
       </c>
-      <c r="G81" s="3">
-        <v>-28300</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-6400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-25300</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3029,43 +3425,51 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E83" s="3">
+        <v>9900</v>
+      </c>
+      <c r="F83" s="3">
         <v>10000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>8800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>13900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>5600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>6100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>13000</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3099,8 +3503,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3134,8 +3544,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3169,8 +3585,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3204,8 +3626,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3239,43 +3667,55 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-22200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-31900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>5500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>4000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>5300</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3289,8 +3729,10 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3298,34 +3740,40 @@
         <v>-500</v>
       </c>
       <c r="E91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G91" s="3">
         <v>-1700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-900</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3359,8 +3807,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3394,43 +3848,55 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-14900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-79000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-18500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-4000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-3700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-11500</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3444,8 +3910,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3479,8 +3947,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3514,8 +3988,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3549,8 +4029,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3584,109 +4070,133 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F100" s="3">
         <v>-17600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>394100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>38600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-2300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-1300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>7400</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
+        <v>100</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-700</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-41700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-54800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>283100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>20200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-1000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>600</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SHCR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SHCR_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,57 +665,58 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -725,40 +726,43 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>114600</v>
+      </c>
+      <c r="E8" s="3">
         <v>103800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>100700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>119100</v>
       </c>
-      <c r="G8" s="3">
-        <v>105600</v>
-      </c>
       <c r="H8" s="3">
+        <v>106200</v>
+      </c>
+      <c r="I8" s="3">
         <v>188100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>88400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>80200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>160200</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -766,38 +770,41 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>60300</v>
+      </c>
+      <c r="E9" s="3">
         <v>53200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>51500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>58900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>51300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>93000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>43800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>36900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>80200</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
@@ -807,38 +814,41 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>54300</v>
+      </c>
+      <c r="E10" s="3">
         <v>50600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>49200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>60200</v>
       </c>
-      <c r="G10" s="3">
-        <v>54300</v>
-      </c>
       <c r="H10" s="3">
+        <v>54900</v>
+      </c>
+      <c r="I10" s="3">
         <v>95100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>44600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>43300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>80000</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
@@ -848,8 +858,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -865,35 +878,36 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>16900</v>
+        <v>17100</v>
       </c>
       <c r="E12" s="3">
-        <v>18400</v>
+        <v>17700</v>
       </c>
       <c r="F12" s="3">
-        <v>20300</v>
+        <v>19400</v>
       </c>
       <c r="G12" s="3">
-        <v>15400</v>
+        <v>21800</v>
       </c>
       <c r="H12" s="3">
-        <v>26300</v>
+        <v>16300</v>
       </c>
       <c r="I12" s="3">
-        <v>12200</v>
+        <v>36300</v>
       </c>
       <c r="J12" s="3">
+        <v>12500</v>
+      </c>
+      <c r="K12" s="3">
         <v>10400</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
@@ -906,8 +920,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,26 +964,29 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>1100</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -979,8 +999,8 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -988,40 +1008,43 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E15" s="3">
         <v>10900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>9900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>10000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>8800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>13900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>5600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>6100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>13000</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1029,8 +1052,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1043,38 +1069,39 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>140100</v>
+      </c>
+      <c r="E17" s="3">
         <v>139500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>151300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>157700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>136300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>205500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>101100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>75200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>170000</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1084,38 +1111,41 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-35700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-50600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-38600</v>
       </c>
-      <c r="G18" s="3">
-        <v>-30700</v>
-      </c>
       <c r="H18" s="3">
+        <v>-30100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-17400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-12700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-9800</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1125,8 +1155,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1142,38 +1175,39 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E20" s="3">
         <v>7000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>12900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>47900</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I20" s="3">
         <v>-20700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-9400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1183,38 +1217,41 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-17800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-27800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>19300</v>
       </c>
-      <c r="G21" s="3">
-        <v>-22000</v>
-      </c>
       <c r="H21" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="I21" s="3">
         <v>-24200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-16500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>11200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2900</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1224,8 +1261,11 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1236,28 +1276,28 @@
         <v>500</v>
       </c>
       <c r="F22" s="3">
+        <v>500</v>
+      </c>
+      <c r="G22" s="3">
         <v>700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>12800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>14100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>7500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>8100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>15400</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1265,38 +1305,41 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-29300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-38200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>8600</v>
       </c>
-      <c r="G23" s="3">
-        <v>-43600</v>
-      </c>
       <c r="H23" s="3">
+        <v>-43000</v>
+      </c>
+      <c r="I23" s="3">
         <v>-52200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-29600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-25500</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1306,40 +1349,43 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-500</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-200</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1347,8 +1393,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1388,38 +1437,41 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-27500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-29500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-38300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>10100</v>
       </c>
-      <c r="G26" s="3">
-        <v>-43100</v>
-      </c>
       <c r="H26" s="3">
+        <v>-42500</v>
+      </c>
+      <c r="I26" s="3">
         <v>-52200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-28700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-25300</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1429,38 +1481,41 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-29000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-38200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>10200</v>
       </c>
-      <c r="G27" s="3">
-        <v>-43100</v>
-      </c>
       <c r="H27" s="3">
+        <v>-42400</v>
+      </c>
+      <c r="I27" s="3">
         <v>-52200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-29100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-25300</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1470,8 +1525,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1511,8 +1569,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1552,8 +1613,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1593,8 +1657,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1634,38 +1701,41 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-7000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-12900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-47900</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>100</v>
+      </c>
+      <c r="I32" s="3">
         <v>20700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>9400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1675,38 +1745,41 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-29000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-38200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>10200</v>
       </c>
-      <c r="G33" s="3">
-        <v>-43100</v>
-      </c>
       <c r="H33" s="3">
+        <v>-42400</v>
+      </c>
+      <c r="I33" s="3">
         <v>-52200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-29100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-25300</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1716,8 +1789,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1757,38 +1833,41 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-29000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-38200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>10200</v>
       </c>
-      <c r="G35" s="3">
-        <v>-43100</v>
-      </c>
       <c r="H35" s="3">
+        <v>-42400</v>
+      </c>
+      <c r="I35" s="3">
         <v>-52200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-29100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-25300</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1798,43 +1877,46 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1844,8 +1926,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1861,8 +1946,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1878,29 +1964,30 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>202600</v>
+      </c>
+      <c r="E41" s="3">
         <v>211600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>253300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>271100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>325900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>42800</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1919,8 +2006,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1960,29 +2050,32 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>102100</v>
+      </c>
+      <c r="E43" s="3">
         <v>101500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>98100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>108600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>87600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>83400</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1992,8 +2085,8 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2001,8 +2094,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2042,29 +2138,32 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E45" s="3">
         <v>14800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>14200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>11300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>12600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>11400</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2083,29 +2182,32 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>319300</v>
+      </c>
+      <c r="E46" s="3">
         <v>327900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>365700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>391000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>426100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>137600</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,8 +2226,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2156,8 +2261,8 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
+      <c r="M47" s="3">
+        <v>0</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
@@ -2165,29 +2270,32 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E48" s="3">
         <v>4900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4100</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2197,8 +2305,8 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -2206,29 +2314,32 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>356700</v>
+      </c>
+      <c r="E49" s="3">
         <v>347800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>349200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>347500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>341200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>275500</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2238,8 +2349,8 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -2247,8 +2358,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2288,8 +2402,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2329,29 +2446,32 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>29300</v>
+      </c>
+      <c r="E52" s="3">
         <v>20400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>20000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>12200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>11900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>20000</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2361,8 +2481,8 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -2370,8 +2490,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2411,29 +2534,32 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>710700</v>
+      </c>
+      <c r="E54" s="3">
         <v>701100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>739200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>755200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>783700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>437200</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2452,8 +2578,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2469,8 +2598,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2486,29 +2616,30 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E57" s="3">
         <v>21200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>27300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>27200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>22200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>30500</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2527,29 +2658,32 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>900</v>
+      </c>
+      <c r="E58" s="3">
         <v>800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>600</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>1200</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2568,29 +2702,32 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>76800</v>
+      </c>
+      <c r="E59" s="3">
         <v>54800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>70300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>67900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>67300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>89700</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2600,8 +2737,8 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -2609,29 +2746,32 @@
       <c r="O59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>89900</v>
+      </c>
+      <c r="E60" s="3">
         <v>76800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>98200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>95100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>89600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>121300</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,8 +2790,11 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2662,17 +2805,17 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>166800</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2691,29 +2834,32 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E62" s="3">
         <v>13500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>20100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>36700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>85400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>62100</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2732,8 +2878,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2773,8 +2922,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2814,8 +2966,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2855,29 +3010,32 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>117500</v>
+      </c>
+      <c r="E66" s="3">
         <v>91600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>120200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>134000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>177200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>352400</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2896,8 +3054,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2913,8 +3074,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2954,8 +3116,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2995,8 +3160,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3013,11 +3181,11 @@
         <v>58200</v>
       </c>
       <c r="H70" s="3">
+        <v>58200</v>
+      </c>
+      <c r="I70" s="3">
         <v>242600</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
@@ -3036,8 +3204,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3077,29 +3248,32 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-571700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-544300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-515300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-477100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-487300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-444200</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3118,8 +3292,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3159,8 +3336,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3200,8 +3380,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3241,29 +3424,32 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>535000</v>
+      </c>
+      <c r="E76" s="3">
         <v>551300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>560800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>563000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>548400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-157900</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3282,8 +3468,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3323,43 +3512,46 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3369,38 +3561,41 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-29000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-38200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>10200</v>
       </c>
-      <c r="G81" s="3">
-        <v>-43100</v>
-      </c>
       <c r="H81" s="3">
+        <v>-42400</v>
+      </c>
+      <c r="I81" s="3">
         <v>-52200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-29100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-25300</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3410,8 +3605,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3427,40 +3625,41 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E83" s="3">
         <v>10900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>9900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>10000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>8800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>13900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>5600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>6100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>13000</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -3468,8 +3667,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3509,8 +3711,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3550,8 +3755,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3591,8 +3799,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3632,8 +3843,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3673,38 +3887,41 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-27800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-12100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-22200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-31900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>5500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5300</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3714,8 +3931,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3731,13 +3951,14 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-500</v>
+        <v>-800</v>
       </c>
       <c r="E91" s="3">
         <v>-500</v>
@@ -3746,25 +3967,25 @@
         <v>-500</v>
       </c>
       <c r="G91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H91" s="3">
         <v>-1700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-900</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -3772,8 +3993,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3813,8 +4037,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3854,38 +4081,41 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-16200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-8000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-14900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-79000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-18500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-11500</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3895,8 +4125,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3912,8 +4145,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3953,8 +4187,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3994,8 +4231,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4035,8 +4275,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4076,38 +4319,41 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E100" s="3">
         <v>2500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-17600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>394100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>38600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>7400</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4117,8 +4363,11 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4126,31 +4375,31 @@
         <v>-200</v>
       </c>
       <c r="E101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-100</v>
       </c>
       <c r="G101" s="3">
         <v>-100</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-700</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -4158,38 +4407,41 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-41700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-17800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-54800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>283100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>20200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>600</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4197,6 +4449,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SHCR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SHCR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="92">
   <si>
     <t>SHCR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,61 +665,61 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -729,43 +729,46 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>123300</v>
+      </c>
+      <c r="E8" s="3">
         <v>114600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>103800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>100700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>119100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>106200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>188100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>88400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>80200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>160200</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -773,41 +776,44 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>73200</v>
+      </c>
+      <c r="E9" s="3">
         <v>60300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>53200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>51500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>58900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>51300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>93000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>43800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>36900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>80200</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
@@ -817,41 +823,44 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>50100</v>
+      </c>
+      <c r="E10" s="3">
         <v>54300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>50600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>49200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>60200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>54900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>95100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>44600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>43300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>80000</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
@@ -861,8 +870,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -879,38 +891,39 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E12" s="3">
         <v>17100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>17700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>19400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>21800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>16300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>36300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>12500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>10400</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
@@ -923,8 +936,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -967,29 +983,32 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>1100</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1002,8 +1021,8 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1011,43 +1030,46 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E15" s="3">
         <v>12100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>10900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>9900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>10000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>8800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>13900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>5600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>6100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>13000</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1055,8 +1077,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1070,41 +1095,42 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>150900</v>
+      </c>
+      <c r="E17" s="3">
         <v>140100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>139500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>151300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>157700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>136300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>205500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>101100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>75200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>170000</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1114,41 +1140,44 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-27600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-25500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-35700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-50600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-38600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-30100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-17400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-12700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-9800</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1158,8 +1187,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1176,41 +1208,42 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>7000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>12900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>47900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-20700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-9400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1220,41 +1253,44 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-15500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-17800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-27800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>19300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-21400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-24200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-16500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>11200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2900</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1264,13 +1300,16 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="E22" s="3">
         <v>500</v>
@@ -1279,28 +1318,28 @@
         <v>500</v>
       </c>
       <c r="G22" s="3">
+        <v>500</v>
+      </c>
+      <c r="H22" s="3">
         <v>700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>12800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>14100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>7500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>8100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>15400</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1308,41 +1347,44 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-28100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-29300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-38200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>8600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-43000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-52200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-29600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-25500</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1352,43 +1394,46 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-500</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-200</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1396,8 +1441,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1440,41 +1488,44 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-27500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-29500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-38300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>10100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-42500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-52200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-28700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-25300</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1484,41 +1535,44 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-27400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-29000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-38200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>10200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-42400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-52200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-29100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-25300</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1528,8 +1582,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1572,8 +1629,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1616,8 +1676,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1660,8 +1723,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1704,41 +1770,44 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E32" s="3">
         <v>2000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-7000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-12900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-47900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>20700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>9400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1748,41 +1817,44 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-27400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-29000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-38200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>10200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-42400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-52200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-29100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-25300</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1792,8 +1864,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1836,41 +1911,44 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-27400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-29000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-38200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>10200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-42400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-52200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-29100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-25300</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,46 +1958,49 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1929,8 +2010,11 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1947,8 +2031,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1965,32 +2050,33 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>182500</v>
+      </c>
+      <c r="E41" s="3">
         <v>202600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>211600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>253300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>271100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>325900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>42800</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2009,8 +2095,11 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2053,32 +2142,35 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>121000</v>
+      </c>
+      <c r="E43" s="3">
         <v>102100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>101500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>98100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>108600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>87600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>83400</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2088,8 +2180,8 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2097,8 +2189,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2141,32 +2236,35 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E45" s="3">
         <v>14600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>14800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>14200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>11300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>11400</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2185,32 +2283,35 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>320600</v>
+      </c>
+      <c r="E46" s="3">
         <v>319300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>327900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>365700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>391000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>426100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>137600</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2229,8 +2330,11 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2264,8 +2368,8 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
+      <c r="N47" s="3">
+        <v>0</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
@@ -2273,32 +2377,35 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E48" s="3">
         <v>5400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4100</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2308,8 +2415,8 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -2317,32 +2424,35 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>354900</v>
+      </c>
+      <c r="E49" s="3">
         <v>356700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>347800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>349200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>347500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>341200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>275500</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2352,8 +2462,8 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -2361,8 +2471,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2405,8 +2518,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2449,32 +2565,35 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E52" s="3">
         <v>29300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>20400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>20000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>12200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>11900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>20000</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2484,8 +2603,8 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -2493,8 +2612,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2537,32 +2659,35 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>701000</v>
+      </c>
+      <c r="E54" s="3">
         <v>710700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>701100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>739200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>755200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>783700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>437200</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2581,8 +2706,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2599,8 +2727,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2617,32 +2746,33 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E57" s="3">
         <v>12200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>21200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>27300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>27200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>22200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>30500</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2661,32 +2791,35 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3">
         <v>900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>600</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>1200</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2705,32 +2838,35 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>92200</v>
+      </c>
+      <c r="E59" s="3">
         <v>76800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>54800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>70300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>67900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>67300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>89700</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2740,8 +2876,8 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -2749,32 +2885,35 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>101000</v>
+      </c>
+      <c r="E60" s="3">
         <v>89900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>76800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>98200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>95100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>89600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>121300</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2793,8 +2932,11 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2808,17 +2950,17 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>166800</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2837,32 +2979,35 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E62" s="3">
         <v>26300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>13500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>20100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>36700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>85400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>62100</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2881,8 +3026,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2925,8 +3073,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2969,8 +3120,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3013,32 +3167,35 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>121400</v>
+      </c>
+      <c r="E66" s="3">
         <v>117500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>91600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>120200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>134000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>177200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>352400</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3057,8 +3214,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3075,8 +3235,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3119,8 +3280,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3163,8 +3327,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3184,11 +3351,11 @@
         <v>58200</v>
       </c>
       <c r="I70" s="3">
+        <v>58200</v>
+      </c>
+      <c r="J70" s="3">
         <v>242600</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -3207,8 +3374,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3251,32 +3421,35 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-595800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-571700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-544300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-515300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-477100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-487300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-444200</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3295,8 +3468,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3339,8 +3515,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3383,8 +3562,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3427,32 +3609,35 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>521400</v>
+      </c>
+      <c r="E76" s="3">
         <v>535000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>551300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>560800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>563000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>548400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-157900</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3471,8 +3656,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3515,46 +3703,49 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3564,41 +3755,44 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-27400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-29000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-38200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>10200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-42400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-52200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-29100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-25300</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3608,8 +3802,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3626,43 +3823,44 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E83" s="3">
         <v>12100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>10900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>9900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>10000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>8800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>13900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>5600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>6100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>13000</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -3670,8 +3868,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3714,8 +3915,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3758,8 +3962,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3802,8 +4009,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3846,8 +4056,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3890,41 +4103,44 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-27800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-12100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-22200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-31900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>5500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5300</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3934,8 +4150,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3952,16 +4171,17 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-800</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-500</v>
       </c>
       <c r="F91" s="3">
         <v>-500</v>
@@ -3970,25 +4190,25 @@
         <v>-500</v>
       </c>
       <c r="H91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I91" s="3">
         <v>-1700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-900</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -3996,8 +4216,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4040,8 +4263,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4084,41 +4310,44 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-16200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-8000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-14900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-79000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-18500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-11500</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4128,8 +4357,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4146,8 +4378,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4190,8 +4423,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4234,8 +4470,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4278,8 +4517,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4322,41 +4564,44 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E100" s="3">
         <v>1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-17600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>394100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>38600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>7400</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4366,43 +4611,46 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="E101" s="3">
         <v>-200</v>
       </c>
       <c r="F101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G101" s="3">
         <v>100</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-100</v>
       </c>
       <c r="H101" s="3">
         <v>-100</v>
       </c>
       <c r="I101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-700</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -4410,41 +4658,44 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-9000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-41700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-17800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-54800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>283100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>20200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>600</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4452,6 +4703,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SHCR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SHCR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="92">
   <si>
     <t>SHCR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,216 +665,242 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>110400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>116300</v>
+      </c>
+      <c r="F8" s="3">
         <v>123300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>114600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>103800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>100700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>119100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>106200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>188100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>88400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>80200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>160200</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
+      <c r="P8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>62900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>67900</v>
+      </c>
+      <c r="F9" s="3">
         <v>73200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>60300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>53200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>51500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>58900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>51300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>93000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>43800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>36900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>80200</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>47500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>48400</v>
+      </c>
+      <c r="F10" s="3">
         <v>50100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>54300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>50600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>49200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>60200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>54900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>95100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>44600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>43300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>80000</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,44 +918,46 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>20800</v>
+      </c>
+      <c r="F12" s="3">
         <v>16300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>17100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>17700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>19400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>21800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>16300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>36300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>12500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>10400</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
@@ -939,8 +967,14 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -986,35 +1020,41 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>1100</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1024,64 +1064,76 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E15" s="3">
+        <v>14800</v>
+      </c>
+      <c r="F15" s="3">
         <v>12400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>12100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>10900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>9900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>10000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>8800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>13900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>5600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>6100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>13000</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1096,102 +1148,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>144500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>152900</v>
+      </c>
+      <c r="F17" s="3">
         <v>150900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>140100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>139500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>151300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>157700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>136300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>205500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>101100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>75200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>170000</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-34100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-36600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-27600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-25500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-35700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-50600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-38600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-30100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-17400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-12700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>5000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-9800</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1209,196 +1275,222 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F20" s="3">
         <v>4300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-2000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>7000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>12900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>47900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-20700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-9400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-10900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-15500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-17800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-27800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>19300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-21400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-24200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-16500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>11200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>2900</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>500</v>
+      </c>
+      <c r="E22" s="3">
+        <v>400</v>
+      </c>
+      <c r="F22" s="3">
         <v>900</v>
-      </c>
-      <c r="E22" s="3">
-        <v>500</v>
-      </c>
-      <c r="F22" s="3">
-        <v>500</v>
       </c>
       <c r="G22" s="3">
         <v>500</v>
       </c>
       <c r="H22" s="3">
+        <v>500</v>
+      </c>
+      <c r="I22" s="3">
+        <v>500</v>
+      </c>
+      <c r="J22" s="3">
         <v>700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>12800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>14100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>7500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>8100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>15400</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-35600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-24100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-28100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-29300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-38200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>8600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-43000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-52200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-29600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-3000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-25500</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1406,46 +1498,52 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>100</v>
+      </c>
+      <c r="G24" s="3">
         <v>-600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-1500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-500</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-200</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1491,102 +1589,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-35600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-24200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-27500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-29500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-38300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>10100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-42500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-52200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-28700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-2500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-25300</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-35100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-34700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-24100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-27400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-29000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-38200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>10200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-42400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-52200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-29100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-6400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-25300</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1632,8 +1748,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1679,8 +1801,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1726,8 +1854,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1773,102 +1907,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-4300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>2000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-7000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-12900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-47900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>20700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>9400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-35100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-34700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-24100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-27400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-29000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-38200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>10200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-42400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-52200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-29100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-6400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-25300</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1914,107 +2066,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-35100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-34700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-24100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-27400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-29000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-38200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>10200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-42400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-52200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-29100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-6400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-25300</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2032,8 +2202,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2051,38 +2223,40 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>144200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>154400</v>
+      </c>
+      <c r="F41" s="3">
         <v>182500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>202600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>211600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>253300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>271100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>325900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>42800</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2272,14 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2145,55 +2325,67 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>126200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>118500</v>
+      </c>
+      <c r="F43" s="3">
         <v>121000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>102100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>101500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>98100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>108600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>87600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>83400</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2239,38 +2431,44 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>19400</v>
+      </c>
+      <c r="F45" s="3">
         <v>17100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>14600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>14800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>14200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>11300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>12600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>11400</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2286,38 +2484,44 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>285700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>292300</v>
+      </c>
+      <c r="F46" s="3">
         <v>320600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>319300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>327900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>365700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>391000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>426100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>137600</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2333,8 +2537,14 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2371,111 +2581,129 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F48" s="3">
         <v>5100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>5400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>4900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>4400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>4500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>4600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>4100</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>344700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>349300</v>
+      </c>
+      <c r="F49" s="3">
         <v>354900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>356700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>347800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>349200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>347500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>341200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>275500</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
-      </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2521,8 +2749,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2568,8 +2802,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2577,46 +2817,52 @@
         <v>20400</v>
       </c>
       <c r="E52" s="3">
-        <v>29300</v>
+        <v>21900</v>
       </c>
       <c r="F52" s="3">
         <v>20400</v>
       </c>
       <c r="G52" s="3">
+        <v>29300</v>
+      </c>
+      <c r="H52" s="3">
+        <v>20400</v>
+      </c>
+      <c r="I52" s="3">
         <v>20000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>12200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>11900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>20000</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2662,38 +2908,44 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>655400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>668600</v>
+      </c>
+      <c r="F54" s="3">
         <v>701000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>710700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>701100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>739200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>755200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>783700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>437200</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2709,8 +2961,14 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2728,8 +2986,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2747,38 +3007,40 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>23100</v>
+      </c>
+      <c r="F57" s="3">
         <v>8800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>12200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>21200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>27300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>27200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>22200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>30500</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2794,38 +3056,44 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3">
         <v>900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>600</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>1200</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2841,85 +3109,97 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>87300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>76500</v>
+      </c>
+      <c r="F59" s="3">
         <v>92200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>76800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>54800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>70300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>67900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>67300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>89700</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>113000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>99600</v>
+      </c>
+      <c r="F60" s="3">
         <v>101000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>89900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>76800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>98200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>95100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>89600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>121300</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2935,16 +3215,22 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2953,20 +3239,20 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>166800</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2982,38 +3268,44 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>13600</v>
+      </c>
+      <c r="F62" s="3">
         <v>19200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>26300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>13500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>20100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>36700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>85400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>62100</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3029,8 +3321,14 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3076,8 +3374,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3123,8 +3427,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3170,38 +3480,44 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>126600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>114200</v>
+      </c>
+      <c r="F66" s="3">
         <v>121400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>117500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>91600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>120200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>134000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>177200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>352400</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3217,8 +3533,14 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3236,8 +3558,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3283,8 +3607,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3330,8 +3660,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3354,14 +3690,14 @@
         <v>58200</v>
       </c>
       <c r="J70" s="3">
+        <v>58200</v>
+      </c>
+      <c r="K70" s="3">
+        <v>58200</v>
+      </c>
+      <c r="L70" s="3">
         <v>242600</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3377,8 +3713,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3424,38 +3766,44 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-666700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-631500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-595800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-571700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-544300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-515300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-477100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-487300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-444200</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3471,8 +3819,14 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3518,8 +3872,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3565,8 +3925,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3612,38 +3978,44 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>470600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>496200</v>
+      </c>
+      <c r="F76" s="3">
         <v>521400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>535000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>551300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>560800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>563000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>548400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-157900</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3659,8 +4031,14 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3706,107 +4084,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-35100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-34700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-24100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-27400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-29000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-38200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>10200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-42400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-52200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-29100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-6400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-25300</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3824,55 +4220,63 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E83" s="3">
+        <v>14800</v>
+      </c>
+      <c r="F83" s="3">
         <v>12400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>12100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>10900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>9900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>10000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>8800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>13900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>5600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>6100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>13000</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3918,8 +4322,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3965,8 +4375,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4012,8 +4428,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4059,8 +4481,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4106,55 +4534,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-7500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-2300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-27800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-12100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-22200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-31900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>5500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>4000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>5300</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4172,55 +4612,63 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-800</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-500</v>
       </c>
       <c r="H91" s="3">
         <v>-500</v>
       </c>
       <c r="I91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-900</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4266,8 +4714,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4313,55 +4767,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-12500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-7600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-16200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-8000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-14900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-79000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-18500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-4000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-3700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-11500</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4379,8 +4845,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4426,8 +4894,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4473,8 +4947,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4520,8 +5000,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4567,145 +5053,169 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>500</v>
+      </c>
+      <c r="F100" s="3">
         <v>-300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>2500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>2300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-17600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>394100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>38600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-2300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-1300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>7400</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>100</v>
+      </c>
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-700</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3">
-        <v>0</v>
+      <c r="P101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-20100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-9000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-41700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-17800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-54800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>283100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>20200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-1000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>600</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SHCR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SHCR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="92">
   <si>
     <t>SHCR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,72 +665,73 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
@@ -740,52 +741,55 @@
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>113300</v>
+      </c>
+      <c r="E8" s="3">
         <v>110400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>116300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>123300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>114600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>103800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>100700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>119100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>106200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>188100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>88400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>80200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>160200</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
@@ -793,50 +797,53 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>64400</v>
+      </c>
+      <c r="E9" s="3">
         <v>62900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>67900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>73200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>60300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>53200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>51500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>58900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>51300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>93000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>43800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>36900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>80200</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
@@ -846,50 +853,53 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>48900</v>
+      </c>
+      <c r="E10" s="3">
         <v>47500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>48400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>50100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>54300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>50600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>49200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>60200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>54900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>95100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>44600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>43300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>80000</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
@@ -899,8 +909,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -920,47 +933,48 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E12" s="3">
         <v>17000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>20800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>16300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>17100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>17700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>19400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>21800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>16300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>36300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>12500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>10400</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
@@ -973,8 +987,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1026,8 +1043,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1037,27 +1057,27 @@
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>1100</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1070,8 +1090,8 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1079,52 +1099,55 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E15" s="3">
         <v>14200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>14800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>12400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>12100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>10900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>9900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>10000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>8800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>13900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>5600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>6100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>13000</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1132,8 +1155,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1150,50 +1176,51 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>143000</v>
+      </c>
+      <c r="E17" s="3">
         <v>144500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>152900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>150900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>140100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>139500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>151300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>157700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>136300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>205500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>101100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>75200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>170000</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1203,50 +1230,53 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-34100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-36600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-27600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-25500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-35700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-50600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-38600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-30100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-17400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-12700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-9800</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1256,8 +1286,11 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1277,50 +1310,51 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>4300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>7000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>12900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>47900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-20700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-9400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-300</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1330,50 +1364,53 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-20900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-19800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-10900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-15500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-17800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-27800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>19300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-21400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-24200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-16500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>11200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2900</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1383,8 +1420,11 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1392,13 +1432,13 @@
         <v>500</v>
       </c>
       <c r="E22" s="3">
+        <v>500</v>
+      </c>
+      <c r="F22" s="3">
         <v>400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>900</v>
-      </c>
-      <c r="G22" s="3">
-        <v>500</v>
       </c>
       <c r="H22" s="3">
         <v>500</v>
@@ -1407,28 +1447,28 @@
         <v>500</v>
       </c>
       <c r="J22" s="3">
+        <v>500</v>
+      </c>
+      <c r="K22" s="3">
         <v>700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>12800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>14100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>7500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>8100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>15400</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1436,50 +1476,53 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-25400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-35600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-35000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-24100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-28100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-29300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-38200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>8600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-43000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-52200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-29600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-25500</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1489,52 +1532,55 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-500</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-200</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
@@ -1542,8 +1588,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1595,50 +1644,53 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-25400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-35600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-35000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-24200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-27500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-29500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-38300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>10100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-42500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-52200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-28700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-25300</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1648,50 +1700,53 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-35100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-34700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-24100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-27400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-29000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-38200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>10200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-42400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-52200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-29100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-6400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-25300</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1701,8 +1756,11 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1754,8 +1812,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1807,8 +1868,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1860,8 +1924,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1913,50 +1980,53 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E32" s="3">
         <v>1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-4300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-7000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-12900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-47900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>20700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>9400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>300</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1966,50 +2036,53 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-35100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-34700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-24100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-27400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-29000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-38200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>10200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-42400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-52200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-29100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-6400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-25300</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,8 +2092,11 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2072,50 +2148,53 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-35100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-34700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-24100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-27400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-29000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-38200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>10200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-42400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-52200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-29100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-6400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-25300</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,55 +2204,58 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2183,8 +2265,11 @@
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2204,8 +2289,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2225,41 +2311,42 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>128000</v>
+      </c>
+      <c r="E41" s="3">
         <v>144200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>154400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>182500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>202600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>211600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>253300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>271100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>325900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>42800</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2278,8 +2365,11 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2331,41 +2421,44 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>127000</v>
+      </c>
+      <c r="E43" s="3">
         <v>126200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>118500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>121000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>102100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>101500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>98100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>108600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>87600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>83400</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2375,8 +2468,8 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -2384,8 +2477,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2437,41 +2533,44 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E45" s="3">
         <v>15300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>19400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>17100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>14600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>14800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>14200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>11300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>12600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>11400</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2490,41 +2589,44 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>268400</v>
+      </c>
+      <c r="E46" s="3">
         <v>285700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>292300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>320600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>319300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>327900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>365700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>391000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>426100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>137600</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2543,8 +2645,11 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2587,8 +2692,8 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
+      <c r="Q47" s="3">
+        <v>0</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>3</v>
@@ -2596,41 +2701,44 @@
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E48" s="3">
         <v>4600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4100</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2640,8 +2748,8 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -2649,41 +2757,44 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>338500</v>
+      </c>
+      <c r="E49" s="3">
         <v>344700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>349300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>354900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>356700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>347800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>349200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>347500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>341200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>275500</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2693,8 +2804,8 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -2702,8 +2813,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2755,8 +2869,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2808,41 +2925,44 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E52" s="3">
         <v>20400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>21900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>20400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>29300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>20400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>20000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>12200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>11900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>20000</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2852,8 +2972,8 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -2861,8 +2981,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2914,41 +3037,44 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>629600</v>
+      </c>
+      <c r="E54" s="3">
         <v>655400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>668600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>701000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>710700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>701100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>739200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>755200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>783700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>437200</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2967,8 +3093,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2988,8 +3117,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3009,41 +3139,42 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E57" s="3">
         <v>25700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>23100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>12200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>21200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>27300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>27200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>22200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>30500</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3062,8 +3193,11 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3076,27 +3210,27 @@
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3">
         <v>900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>600</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>1200</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3115,41 +3249,44 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>84000</v>
+      </c>
+      <c r="E59" s="3">
         <v>87300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>76500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>92200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>76800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>54800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>70300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>67900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>67300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>89700</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3159,8 +3296,8 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
@@ -3168,41 +3305,44 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>110600</v>
+      </c>
+      <c r="E60" s="3">
         <v>113000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>99600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>101000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>89900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>76800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>98200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>95100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>89600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>121300</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3221,20 +3361,23 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>500</v>
+      </c>
+      <c r="E61" s="3">
         <v>400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>200</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -3245,17 +3388,17 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>166800</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3274,41 +3417,44 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E62" s="3">
         <v>12900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>13600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>19200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>26300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>13500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>20100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>36700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>85400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>62100</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3327,8 +3473,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3380,8 +3529,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3433,8 +3585,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3486,41 +3641,44 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>119300</v>
+      </c>
+      <c r="E66" s="3">
         <v>126600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>114200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>121400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>117500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>91600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>120200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>134000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>177200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>352400</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3539,8 +3697,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3560,8 +3721,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3613,8 +3775,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3666,8 +3831,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3696,11 +3864,11 @@
         <v>58200</v>
       </c>
       <c r="L70" s="3">
+        <v>58200</v>
+      </c>
+      <c r="M70" s="3">
         <v>242600</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3719,8 +3887,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3772,41 +3943,44 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-691100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-666700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-631500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-595800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-571700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-544300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-515300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-477100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-487300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-444200</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3825,8 +3999,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3878,8 +4055,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3931,8 +4111,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3984,41 +4167,44 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>452100</v>
+      </c>
+      <c r="E76" s="3">
         <v>470600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>496200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>521400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>535000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>551300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>560800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>563000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>548400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-157900</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4037,8 +4223,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4090,55 +4279,58 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4148,50 +4340,53 @@
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-35100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-34700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-24100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-27400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-29000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-38200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>10200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-42400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-52200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-29100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-6400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-25300</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4201,8 +4396,11 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4222,52 +4420,53 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E83" s="3">
         <v>14200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>14800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>12400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>12100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>10900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>9900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>10000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>13900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>5600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>6100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>13000</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -4275,8 +4474,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4328,8 +4530,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4381,8 +4586,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4434,8 +4642,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4487,8 +4698,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4540,50 +4754,53 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E89" s="3">
         <v>2300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-23500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-27800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-12100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-22200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-31900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>5300</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4593,8 +4810,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4614,25 +4834,26 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-800</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-500</v>
       </c>
       <c r="I91" s="3">
         <v>-500</v>
@@ -4641,25 +4862,25 @@
         <v>-500</v>
       </c>
       <c r="K91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L91" s="3">
         <v>-1700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-900</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -4667,8 +4888,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4720,8 +4944,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4773,50 +5000,53 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-10000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-12500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-7600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-16200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-8000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-14900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-79000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-18500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-11500</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4826,8 +5056,11 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4847,8 +5080,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4900,8 +5134,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4953,8 +5190,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5006,8 +5246,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5059,50 +5302,53 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-17600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>394100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>38600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>7400</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5112,52 +5358,55 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
         <v>100</v>
       </c>
       <c r="F101" s="3">
+        <v>100</v>
+      </c>
+      <c r="G101" s="3">
         <v>200</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-200</v>
       </c>
       <c r="H101" s="3">
         <v>-200</v>
       </c>
       <c r="I101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-100</v>
       </c>
       <c r="K101" s="3">
         <v>-100</v>
       </c>
       <c r="L101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>300</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-700</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>0</v>
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
@@ -5165,50 +5414,53 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-10300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-28100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-20100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-9000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-41700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-17800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-54800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>283100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>20200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>600</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5216,6 +5468,9 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
